--- a/Solix Login users/work.xlsx
+++ b/Solix Login users/work.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>tofadaw710@tebyy.com</t>
   </si>
@@ -72,252 +72,18 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Testcase summary</t>
-  </si>
-  <si>
     <t>No of Test Cases</t>
   </si>
   <si>
-    <t>Estimated days</t>
-  </si>
-  <si>
-    <t>Start date</t>
-  </si>
-  <si>
-    <t>Expected End Date</t>
-  </si>
-  <si>
-    <t>TC-ID-101</t>
-  </si>
-  <si>
     <t>End User My FIles - Drag and Drop Move</t>
   </si>
   <si>
-    <t>Single File</t>
-  </si>
-  <si>
-    <t>2 days</t>
-  </si>
-  <si>
-    <t>16th Aug 22 - Tuesday</t>
-  </si>
-  <si>
-    <t>17th Aug 22 - Wednesday</t>
-  </si>
-  <si>
-    <t>Single Folder</t>
-  </si>
-  <si>
-    <t>TC-ID-102</t>
-  </si>
-  <si>
-    <t>Multiple Files</t>
-  </si>
-  <si>
-    <t>TC-ID-103</t>
-  </si>
-  <si>
-    <t>Multiple Folders</t>
-  </si>
-  <si>
-    <t>TC-ID-104</t>
-  </si>
-  <si>
-    <t>Multiple Files &amp; Folders</t>
-  </si>
-  <si>
-    <t>TC-ID-105</t>
-  </si>
-  <si>
-    <t>End User My FIles - Drag and Drop Copy Versions - Update existing</t>
-  </si>
-  <si>
-    <t>Multiple files versions</t>
-  </si>
-  <si>
-    <t>18th Aug 22 - Thursday</t>
-  </si>
-  <si>
-    <t>19th Aug 22 - Friday</t>
-  </si>
-  <si>
-    <t>TC-ID-106</t>
-  </si>
-  <si>
-    <t>Multiple folders versions</t>
-  </si>
-  <si>
-    <t>TC-ID-107</t>
-  </si>
-  <si>
-    <t>Multiple files &amp; folders versions</t>
-  </si>
-  <si>
-    <t>TC-ID-108</t>
-  </si>
-  <si>
-    <t>End User My FIles - Drag and Drop Move Versions - Update existing</t>
-  </si>
-  <si>
-    <t>22th Aug 22 - Monday</t>
-  </si>
-  <si>
-    <t>23th Aug 22 - Tuesday</t>
-  </si>
-  <si>
-    <t>TC-ID-109</t>
-  </si>
-  <si>
-    <t>TC-ID-110</t>
-  </si>
-  <si>
-    <t>TC-ID-111</t>
-  </si>
-  <si>
-    <t>End User My FIles - Drag and Drop Move Versions - Keep separate</t>
-  </si>
-  <si>
-    <t>Multiple file</t>
-  </si>
-  <si>
-    <t>24th Aug 22 - Wednesday</t>
-  </si>
-  <si>
-    <t>25th Aug 22 - Thursday</t>
-  </si>
-  <si>
-    <t>TC-ID-112</t>
-  </si>
-  <si>
-    <t>Multiple folders</t>
-  </si>
-  <si>
-    <t>TC-ID-113</t>
-  </si>
-  <si>
-    <t>Multiple files &amp; folders</t>
-  </si>
-  <si>
-    <t>TC-ID-114</t>
-  </si>
-  <si>
-    <t>End User My FIles - Drag and Drop Move Versions - Skip</t>
-  </si>
-  <si>
-    <t>Mulile files</t>
-  </si>
-  <si>
-    <t>TC-ID-115</t>
-  </si>
-  <si>
-    <t>Mulile folders</t>
-  </si>
-  <si>
-    <t>TC-ID-116</t>
-  </si>
-  <si>
-    <t>End User My Files - Collections</t>
-  </si>
-  <si>
-    <t>Add files to collection</t>
-  </si>
-  <si>
-    <t>TC-ID-117</t>
-  </si>
-  <si>
-    <t>Add files to collection restriction</t>
-  </si>
-  <si>
-    <t>TC-ID-118</t>
-  </si>
-  <si>
-    <t>End User My Files - Share - User to Admin</t>
-  </si>
-  <si>
-    <t>Share multiple files and folders with edit permission to internal user</t>
-  </si>
-  <si>
-    <t>26th Aug 22 - Frisday</t>
-  </si>
-  <si>
-    <t>29th Aug 22 - Monday</t>
-  </si>
-  <si>
-    <t>TC-ID-119</t>
-  </si>
-  <si>
-    <t>Edit permission right click options confirmation for files and folders</t>
-  </si>
-  <si>
-    <t>TC-ID-120</t>
-  </si>
-  <si>
-    <t>Share multiple files and folders with commenter permission to internal user</t>
-  </si>
-  <si>
-    <t>TC-ID-121</t>
-  </si>
-  <si>
-    <t>Commenter permission right click options confirmation for files and folders</t>
-  </si>
-  <si>
-    <t>TC-ID-122</t>
-  </si>
-  <si>
-    <t>Share multiple files and folders with view permission to internal user</t>
-  </si>
-  <si>
-    <t>TC-ID-123</t>
-  </si>
-  <si>
-    <t>View permission right click options confirmation for files and folders</t>
-  </si>
-  <si>
-    <t>TC-ID-124</t>
-  </si>
-  <si>
-    <t>Share multiple files and folders with preview permission to internal user</t>
-  </si>
-  <si>
-    <t>TC-ID-125</t>
-  </si>
-  <si>
-    <t>Preview permission right click options confirmation for files and folders</t>
-  </si>
-  <si>
-    <t>TC-ID-126</t>
-  </si>
-  <si>
-    <t>Share multiple files and folders with upload permission to internal user</t>
-  </si>
-  <si>
-    <t>TC-ID-127</t>
-  </si>
-  <si>
-    <t>Upload permission right click options confirmation for files and folders</t>
-  </si>
-  <si>
-    <t>TC-ID-128</t>
-  </si>
-  <si>
-    <t>Remove files and folders sharing to internal user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Completed</t>
-  </si>
-  <si>
     <t>Modules</t>
   </si>
   <si>
     <t>Line No</t>
   </si>
   <si>
-    <t>TC-ID-100</t>
-  </si>
-  <si>
     <t>TC-ID-100 ==104</t>
   </si>
   <si>
@@ -340,6 +106,12 @@
   </si>
   <si>
     <t>TC-ID-105 ==107</t>
+  </si>
+  <si>
+    <t>rabapa8764@orlydns.com</t>
+  </si>
+  <si>
+    <t>Guest</t>
   </si>
 </sst>
 </file>
@@ -602,7 +374,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -656,6 +428,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -674,32 +473,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -997,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,7 +786,7 @@
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +823,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1084,7 +859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1095,31 +870,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
+    <row r="9" spans="1:5">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1133,11 +922,13 @@
     <hyperlink ref="C6" r:id="rId6"/>
     <hyperlink ref="C7" r:id="rId7"/>
     <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="C25" r:id="rId9"/>
-    <hyperlink ref="C10" r:id="rId10"/>
+    <hyperlink ref="C27" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="A10" r:id="rId11"/>
+    <hyperlink ref="C10" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -1146,7 +937,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1162,509 +953,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="A1" s="18"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="21">
-        <v>5</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="21">
-        <v>3</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A8" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="21">
-        <v>3</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>49</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="21">
-        <v>7</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>56</v>
-      </c>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
     </row>
     <row r="14" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="1:8" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A20" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="21">
-        <v>11</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>75</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A21" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
     <row r="23" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A23" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A24" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A25" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="26" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A28" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A29" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" s="12" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A30" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1">
       <c r="A31" s="9"/>
@@ -1677,14 +1238,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
     <mergeCell ref="D20:D30"/>
     <mergeCell ref="E20:E30"/>
     <mergeCell ref="F20:F30"/>
@@ -1697,6 +1250,14 @@
     <mergeCell ref="E13:E19"/>
     <mergeCell ref="F13:F19"/>
     <mergeCell ref="G13:G19"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1716,70 +1277,70 @@
     <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="47.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="27" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>98</v>
+      <c r="C1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="22">
+        <v>5</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="28">
-        <v>5</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A3" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="B3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="22">
         <v>3</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>104</v>
+      <c r="D3" s="23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5">
-      <c r="A4" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="A4" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="22">
         <v>3</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>106</v>
+      <c r="D4" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
